--- a/novelty_scoring/autdata_official_ratings_johnhenry.xlsx
+++ b/novelty_scoring/autdata_official_ratings_johnhenry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhec8\Documents\Northwestern_SROP\AUT-Scoring\novelty_scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7A20E-9347-4E68-95B2-10ED1A1C05D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3BB429-CDF9-44F6-8B19-B521AC2614E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="2550" windowWidth="21570" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3180" yWindow="3195" windowWidth="21570" windowHeight="11835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10552" uniqueCount="2549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10553" uniqueCount="2549">
   <si>
     <t>id</t>
   </si>
@@ -25720,7 +25720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K485" sqref="K485"/>
     </sheetView>
   </sheetViews>
@@ -32592,13 +32592,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C425"/>
+  <dimension ref="A1:D425"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -32608,8 +32613,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -32620,7 +32628,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -32631,7 +32639,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -32642,7 +32650,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -32653,7 +32661,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -32664,7 +32672,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -32675,7 +32683,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -32686,7 +32694,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -32697,7 +32705,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -32708,7 +32716,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -32719,7 +32727,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -32730,7 +32738,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -32741,7 +32749,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -32752,7 +32760,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -32763,7 +32771,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>

--- a/novelty_scoring/autdata_official_ratings_johnhenry.xlsx
+++ b/novelty_scoring/autdata_official_ratings_johnhenry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhec8\Documents\Northwestern_SROP\AUT-Scoring\novelty_scoring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF50DA7-8339-4957-8BE5-E859C13ED742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D43F86-2E36-4B34-9EE6-FC077D397A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2310" yWindow="2490" windowWidth="21570" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8094,8 +8094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D395"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A373" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13624,8 +13624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19272,8 +19272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D461"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D462" sqref="D462"/>
+    <sheetView topLeftCell="A442" workbookViewId="0">
+      <selection activeCell="D339" sqref="D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20257,6 +20257,9 @@
       <c r="C70" t="s">
         <v>760</v>
       </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -25723,8 +25726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K485" sqref="K485"/>
+    <sheetView topLeftCell="A478" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D315" sqref="D315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32597,8 +32600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D425"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38547,8 +38550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D439"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+    <sheetView topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="D430" sqref="D430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44696,8 +44699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D454"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A114" sqref="A114"/>
+    <sheetView topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="D301" sqref="D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51055,8 +51058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="D449" sqref="D449"/>
+    <sheetView topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
